--- a/report_ca_nhan/NV-4 Thạch Hoàng Nhân 7-2024.xlsx
+++ b/report_ca_nhan/NV-4 Thạch Hoàng Nhân 7-2024.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,44 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-4 Thạch Hoàng Nhân 7-2024.xlsx
+++ b/report_ca_nhan/NV-4 Thạch Hoàng Nhân 7-2024.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Đơn thu nợ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,52 +624,547 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>519</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>na quy</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
       <c r="I3" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>21500000</v>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="L3" t="n">
-        <v>25000000</v>
+        <v>21500000</v>
       </c>
       <c r="M3" t="n">
-        <v>25000000</v>
+        <v>21500000</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25000000</v>
+        <v>21500000</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
       <c r="U3" t="n">
         <v>50000</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>520</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đa ni </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v/>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>521</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đa ni </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Phun môi</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>522</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ngọc linh </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Làm má Lúm</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v/>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>66000000</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>66000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>66000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>66000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>200000</v>
+      </c>
+      <c r="V7" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>137</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-262</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>139</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-356</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/report_ca_nhan/NV-4 Thạch Hoàng Nhân 7-2024.xlsx
+++ b/report_ca_nhan/NV-4 Thạch Hoàng Nhân 7-2024.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn thu nợ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,82 +455,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -566,58 +590,75 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Ngực</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Treo cung</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>25000000</v>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
       <c r="K2" t="n">
         <v/>
       </c>
       <c r="L2" t="n">
-        <v>25000000</v>
+        <v/>
       </c>
       <c r="M2" t="n">
         <v>25000000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>25000000</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Bác Sĩ Thảo</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
       <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
         <v>50000</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -652,58 +693,75 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>21500000</v>
       </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
       <c r="K3" t="n">
         <v/>
       </c>
       <c r="L3" t="n">
-        <v>21500000</v>
+        <v/>
       </c>
       <c r="M3" t="n">
         <v>21500000</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>21500000</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>21500000</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R3" t="n">
-        <v/>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
       <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
         <v>50000</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -738,56 +796,73 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>11000000</v>
       </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
       <c r="K4" t="n">
         <v/>
       </c>
       <c r="L4" t="n">
-        <v>11000000</v>
+        <v/>
       </c>
       <c r="M4" t="n">
         <v>11000000</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>11000000</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v/>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
       <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
         <v>50000</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -822,46 +897,48 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Môi</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>Phun môi</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>5500000</v>
       </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
       <c r="K5" t="n">
         <v/>
       </c>
       <c r="L5" t="n">
-        <v>5500000</v>
+        <v/>
       </c>
       <c r="M5" t="n">
         <v>5500000</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5500000</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>5500000</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
-      <c r="R5" t="n">
-        <v/>
-      </c>
       <c r="S5" t="n">
         <v/>
       </c>
@@ -869,9 +946,24 @@
         <v/>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -906,56 +998,73 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Làm má Lúm</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>3000000</v>
       </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
       <c r="K6" t="n">
         <v/>
       </c>
       <c r="L6" t="n">
-        <v>3000000</v>
+        <v/>
       </c>
       <c r="M6" t="n">
         <v>3000000</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>3000000</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v/>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
       <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
         <v>50000</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -974,36 +1083,49 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
         <v>66000000</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>66000000</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>66000000</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>66000000</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>66000000</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
         <v>200000</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1149,22 +1271,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/report_ca_nhan/NV-4 Thạch Hoàng Nhân 7-2024.xlsx
+++ b/report_ca_nhan/NV-4 Thạch Hoàng Nhân 7-2024.xlsx
@@ -590,7 +590,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ngực</t>
+          <t>Tiểu phẫu</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Môi</t>
+          <t>Phun xăm</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1151,122 +1151,422 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notion id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Tiền tố</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Mã đơn thu nợ</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id đơn nợ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
         <is>
           <t>Đơn nợ</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Lượng thu</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Ngày thu</t>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>id sale chính</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>id sale phụ</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>04-04-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>dfafe21b-d5c8-4925-8327-15d40efe6033</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>TN</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="E2" t="n">
         <v>137</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>375900ba-870d-4372-be18-f3821db1f765</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>HD-LUXURY-262</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>10000000</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>07-05-2024</t>
-        </is>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="n">
+        <v/>
+      </c>
+      <c r="R2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v/>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>04-29-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>24a4f213-618b-4ea3-b604-5b10881d56f7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>TN</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="E3" t="n">
         <v>139</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>803377a1-0326-4663-9ed5-acaf19520399</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>HD-LUXURY-356</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>07-05-2024</t>
-        </is>
+      <c r="L3" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
+        <v/>
+      </c>
+      <c r="Y3" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="E4" t="n">
         <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>12000000</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>45000000</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>34000000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-4 Thạch Hoàng Nhân 7-2024.xlsx
+++ b/report_ca_nhan/NV-4 Thạch Hoàng Nhân 7-2024.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,107 +455,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -590,75 +525,28 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Treo cung</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
+      <c r="H2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
       <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
         <v>25000000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
       <c r="L2" t="n">
-        <v/>
+        <v>25000000</v>
       </c>
       <c r="M2" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Thảo</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -693,75 +581,28 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
+      <c r="H3" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
       </c>
       <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
         <v>21500000</v>
       </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
       <c r="L3" t="n">
-        <v/>
+        <v>21500000</v>
       </c>
       <c r="M3" t="n">
-        <v>21500000</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>21500000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>21500000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,73 +637,28 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
+      <c r="H4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
       </c>
       <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
         <v>11000000</v>
       </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
       <c r="L4" t="n">
-        <v/>
+        <v>11000000</v>
       </c>
       <c r="M4" t="n">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v/>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -897,73 +693,28 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>Phun môi</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
+      <c r="H5" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
       </c>
       <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
         <v>5500000</v>
       </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
       <c r="L5" t="n">
-        <v/>
+        <v>5500000</v>
       </c>
       <c r="M5" t="n">
-        <v>5500000</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5500000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5500000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Ngoài</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -998,73 +749,28 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>Làm má Lúm</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
+      <c r="H6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I6" t="n">
+        <v/>
       </c>
       <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
         <v>3000000</v>
       </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
       <c r="L6" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="M6" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v/>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1082,50 +788,23 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>66000000</v>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>66000000</v>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>66000000</v>
       </c>
       <c r="M7" t="n">
-        <v>66000000</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>66000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>66000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
-        <v>200000</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1140,7 +819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1151,97 +830,97 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ngày thực hiện</t>
+          <t>Tiền tố</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Ngày thu</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>notion id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Cơ sở</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>id đơn nợ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale chính</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Đã thanh toán</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
+          <t>Chiết khấu sale chính</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -1251,229 +930,197 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>id sale chính</t>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>id sale phụ</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>id bác sĩ 1</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>id bác sĩ 2</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-04-2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>137</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>07-05-2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>dfafe21b-d5c8-4925-8327-15d40efe6033</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>137</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>HD-LUXURY-262</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>375900ba-870d-4372-be18-f3821db1f765</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>Hút mỡ nách</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>chị Dung</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
         <v>10000000</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-262</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
-      </c>
       <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
         <v>10000000</v>
       </c>
-      <c r="M2" t="n">
-        <v/>
-      </c>
-      <c r="N2" t="n">
-        <v/>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>CTV Ngoài</t>
         </is>
       </c>
-      <c r="P2" t="n">
-        <v/>
-      </c>
       <c r="Q2" t="n">
         <v/>
       </c>
       <c r="R2" t="n">
-        <v>10000000</v>
+        <v>0.1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1</v>
+        <v>1000000</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
-        </is>
+      <c r="U2" t="n">
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v/>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AB2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-29-2024</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>139</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>07-05-2024</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>24a4f213-618b-4ea3-b604-5b10881d56f7</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>139</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>HD-LUXURY-356</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>803377a1-0326-4663-9ed5-acaf19520399</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2000000</v>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>thuý vân</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HD-LUXURY-356</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
           <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
+      <c r="K3" t="n">
+        <v>35000000</v>
+      </c>
       <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
         <v>35000000</v>
       </c>
-      <c r="M3" t="n">
-        <v/>
-      </c>
-      <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
-      <c r="P3" t="n">
-        <v/>
-      </c>
       <c r="Q3" t="n">
-        <v>15000000</v>
+        <v/>
       </c>
       <c r="R3" t="n">
-        <v>24000000</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1481,90 +1128,78 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
-        </is>
+      <c r="U3" t="n">
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
+      <c r="C4" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>12000000</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
+      <c r="K4" t="n">
         <v>45000000</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
       <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>45000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>34000000</v>
+      </c>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>15000000</v>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>34000000</v>
+        <v>0.1</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1</v>
+        <v>1000000</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
       <c r="Y4" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AB4" t="n">
         <v>0</v>
       </c>
     </row>
